--- a/仕様書(画面系).xlsx
+++ b/仕様書(画面系).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E60069-88D9-4379-ACF7-19BE9413676A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0175FA-990F-4444-A1C6-872C87CC1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{FE5DECBA-0A2B-4CC3-9F51-EB37557EFAFB}"/>
+    <workbookView xWindow="4965" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{FE5DECBA-0A2B-4CC3-9F51-EB37557EFAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="1"/>
@@ -129,6 +129,29 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー設定の画面</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量設定の画面</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -275,8 +298,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,11 +331,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,6 +1335,336 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A758292A-BB1E-4B85-9727-99171E257FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="7620001"/>
+          <a:ext cx="1266825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>オプション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3FB81D-9A12-4B8F-A36A-C0ABBF20D3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="7848601"/>
+          <a:ext cx="1266825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>キー設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04A08F0-0AD5-42E5-A09C-62EC4A2C4C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8286751"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>キー設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5DCF3E-9C62-49A7-8735-865519441A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="8496301"/>
+          <a:ext cx="1266825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>音量設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739C9E1C-33D4-4BF6-BC98-7204AE2A708E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="9144001"/>
+          <a:ext cx="1733549" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>タイトルに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1612,243 +1965,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0DAB2-BE26-45BB-A54A-9AC24AC21012}">
-  <dimension ref="B2:Q28"/>
+  <dimension ref="B2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="13" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
       <c r="K20" t="s">
         <v>5</v>
       </c>
@@ -1859,25 +2212,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
       <c r="K22" t="s">
         <v>4</v>
       </c>
@@ -1885,38 +2238,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
       <c r="M23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
       <c r="K25" t="s">
         <v>9</v>
       </c>
@@ -1924,44 +2277,343 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
       <c r="M26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K43" s="4"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K48" s="7"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K50" s="7"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K53" s="10"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="K43:Q53"/>
     <mergeCell ref="B18:I28"/>
     <mergeCell ref="B4:I14"/>
     <mergeCell ref="K4:Q14"/>
+    <mergeCell ref="B31:I41"/>
+    <mergeCell ref="K31:Q41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
